--- a/pred_ohlcv/54/2019-10-19 HDAC ohlcv.xlsx
+++ b/pred_ohlcv/54/2019-10-19 HDAC ohlcv.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H103"/>
+  <dimension ref="A1:I82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -399,7 +399,12 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>fluc_close</t>
+          <t>low_check</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>high_check</t>
         </is>
       </c>
     </row>
@@ -428,6 +433,9 @@
       <c r="H2" t="n">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -452,6 +460,9 @@
         <v>36.61833333333331</v>
       </c>
       <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -480,6 +491,9 @@
       <c r="H4" t="n">
         <v>0</v>
       </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -506,6 +520,9 @@
       <c r="H5" t="n">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -532,6 +549,9 @@
       <c r="H6" t="n">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -558,6 +578,9 @@
       <c r="H7" t="n">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -584,6 +607,9 @@
       <c r="H8" t="n">
         <v>0</v>
       </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -610,6 +636,9 @@
       <c r="H9" t="n">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -636,6 +665,9 @@
       <c r="H10" t="n">
         <v>0</v>
       </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -662,6 +694,9 @@
       <c r="H11" t="n">
         <v>0</v>
       </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -688,6 +723,9 @@
       <c r="H12" t="n">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -712,6 +750,9 @@
         <v>36.56166666666665</v>
       </c>
       <c r="H13" t="n">
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
         <v>0</v>
       </c>
     </row>
@@ -738,6 +779,9 @@
         <v>36.55833333333332</v>
       </c>
       <c r="H14" t="n">
+        <v>1</v>
+      </c>
+      <c r="I14" t="n">
         <v>0</v>
       </c>
     </row>
@@ -764,6 +808,9 @@
         <v>36.55499999999999</v>
       </c>
       <c r="H15" t="n">
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
         <v>0</v>
       </c>
     </row>
@@ -790,6 +837,9 @@
         <v>36.55333333333332</v>
       </c>
       <c r="H16" t="n">
+        <v>1</v>
+      </c>
+      <c r="I16" t="n">
         <v>0</v>
       </c>
     </row>
@@ -816,6 +866,9 @@
         <v>36.55499999999999</v>
       </c>
       <c r="H17" t="n">
+        <v>1</v>
+      </c>
+      <c r="I17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -842,6 +895,9 @@
         <v>36.55499999999999</v>
       </c>
       <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
         <v>0</v>
       </c>
     </row>
@@ -868,6 +924,9 @@
         <v>36.55499999999999</v>
       </c>
       <c r="H19" t="n">
+        <v>1</v>
+      </c>
+      <c r="I19" t="n">
         <v>0</v>
       </c>
     </row>
@@ -894,6 +953,9 @@
         <v>36.55166666666666</v>
       </c>
       <c r="H20" t="n">
+        <v>1</v>
+      </c>
+      <c r="I20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -920,6 +982,9 @@
         <v>36.55333333333332</v>
       </c>
       <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -946,6 +1011,9 @@
         <v>36.55666666666665</v>
       </c>
       <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -972,6 +1040,9 @@
         <v>36.55999999999998</v>
       </c>
       <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
         <v>0</v>
       </c>
     </row>
@@ -998,6 +1069,9 @@
         <v>36.56166666666665</v>
       </c>
       <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1024,6 +1098,9 @@
         <v>36.56166666666665</v>
       </c>
       <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1050,6 +1127,9 @@
         <v>36.56333333333331</v>
       </c>
       <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1076,6 +1156,9 @@
         <v>36.56166666666665</v>
       </c>
       <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1102,6 +1185,9 @@
         <v>36.55666666666664</v>
       </c>
       <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1128,6 +1214,9 @@
         <v>36.55166666666664</v>
       </c>
       <c r="H29" t="n">
+        <v>1</v>
+      </c>
+      <c r="I29" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1154,6 +1243,9 @@
         <v>36.55499999999997</v>
       </c>
       <c r="H30" t="n">
+        <v>1</v>
+      </c>
+      <c r="I30" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1180,6 +1272,9 @@
         <v>36.55166666666664</v>
       </c>
       <c r="H31" t="n">
+        <v>1</v>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1206,6 +1301,9 @@
         <v>36.54833333333331</v>
       </c>
       <c r="H32" t="n">
+        <v>1</v>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1232,6 +1330,9 @@
         <v>36.54999999999998</v>
       </c>
       <c r="H33" t="n">
+        <v>1</v>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1258,6 +1359,9 @@
         <v>36.54999999999998</v>
       </c>
       <c r="H34" t="n">
+        <v>1</v>
+      </c>
+      <c r="I34" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1284,6 +1388,9 @@
         <v>36.54833333333331</v>
       </c>
       <c r="H35" t="n">
+        <v>1</v>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1312,6 +1419,9 @@
       <c r="H36" t="n">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1338,6 +1448,9 @@
       <c r="H37" t="n">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1362,6 +1475,9 @@
         <v>36.54666666666665</v>
       </c>
       <c r="H38" t="n">
+        <v>1</v>
+      </c>
+      <c r="I38" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1390,6 +1506,9 @@
       <c r="H39" t="n">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1416,6 +1535,9 @@
       <c r="H40" t="n">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1440,6 +1562,9 @@
         <v>36.54833333333331</v>
       </c>
       <c r="H41" t="n">
+        <v>1</v>
+      </c>
+      <c r="I41" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1466,6 +1591,9 @@
         <v>36.54666666666665</v>
       </c>
       <c r="H42" t="n">
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1492,6 +1620,9 @@
         <v>36.54499999999998</v>
       </c>
       <c r="H43" t="n">
+        <v>1</v>
+      </c>
+      <c r="I43" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1518,6 +1649,9 @@
         <v>36.54833333333331</v>
       </c>
       <c r="H44" t="n">
+        <v>1</v>
+      </c>
+      <c r="I44" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1544,6 +1678,9 @@
         <v>36.54666666666665</v>
       </c>
       <c r="H45" t="n">
+        <v>1</v>
+      </c>
+      <c r="I45" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1572,6 +1709,9 @@
       <c r="H46" t="n">
         <v>0</v>
       </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1598,6 +1738,9 @@
       <c r="H47" t="n">
         <v>0</v>
       </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1622,6 +1765,9 @@
         <v>36.54166666666665</v>
       </c>
       <c r="H48" t="n">
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1650,6 +1796,9 @@
       <c r="H49" t="n">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1676,6 +1825,9 @@
       <c r="H50" t="n">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1702,6 +1854,9 @@
       <c r="H51" t="n">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1728,6 +1883,9 @@
       <c r="H52" t="n">
         <v>0</v>
       </c>
+      <c r="I52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1754,6 +1912,9 @@
       <c r="H53" t="n">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1778,6 +1939,9 @@
         <v>36.52333333333332</v>
       </c>
       <c r="H54" t="n">
+        <v>1</v>
+      </c>
+      <c r="I54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1806,6 +1970,9 @@
       <c r="H55" t="n">
         <v>0</v>
       </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1832,6 +1999,9 @@
       <c r="H56" t="n">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -1858,6 +2028,9 @@
       <c r="H57" t="n">
         <v>0</v>
       </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -1884,6 +2057,9 @@
       <c r="H58" t="n">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -1910,6 +2086,9 @@
       <c r="H59" t="n">
         <v>0</v>
       </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
@@ -1936,6 +2115,9 @@
       <c r="H60" t="n">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -1962,6 +2144,9 @@
       <c r="H61" t="n">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -1988,6 +2173,9 @@
       <c r="H62" t="n">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2012,6 +2200,9 @@
         <v>36.49166666666666</v>
       </c>
       <c r="H63" t="n">
+        <v>1</v>
+      </c>
+      <c r="I63" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2038,6 +2229,9 @@
         <v>36.49333333333333</v>
       </c>
       <c r="H64" t="n">
+        <v>1</v>
+      </c>
+      <c r="I64" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2064,6 +2258,9 @@
         <v>36.49999999999999</v>
       </c>
       <c r="H65" t="n">
+        <v>1</v>
+      </c>
+      <c r="I65" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2092,6 +2289,9 @@
       <c r="H66" t="n">
         <v>0</v>
       </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2118,6 +2318,9 @@
       <c r="H67" t="n">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2144,6 +2347,9 @@
       <c r="H68" t="n">
         <v>0</v>
       </c>
+      <c r="I68" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="1" t="n">
@@ -2170,6 +2376,9 @@
       <c r="H69" t="n">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2196,6 +2405,9 @@
       <c r="H70" t="n">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2222,6 +2434,9 @@
       <c r="H71" t="n">
         <v>0</v>
       </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2248,6 +2463,9 @@
       <c r="H72" t="n">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2274,6 +2492,9 @@
       <c r="H73" t="n">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2300,6 +2521,9 @@
       <c r="H74" t="n">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2326,6 +2550,9 @@
       <c r="H75" t="n">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2352,6 +2579,9 @@
       <c r="H76" t="n">
         <v>0</v>
       </c>
+      <c r="I76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="1" t="n">
@@ -2378,6 +2608,9 @@
       <c r="H77" t="n">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2404,6 +2637,9 @@
       <c r="H78" t="n">
         <v>0</v>
       </c>
+      <c r="I78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2430,6 +2666,9 @@
       <c r="H79" t="n">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2456,6 +2695,9 @@
       <c r="H80" t="n">
         <v>0</v>
       </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2482,6 +2724,9 @@
       <c r="H81" t="n">
         <v>0</v>
       </c>
+      <c r="I81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2508,550 +2753,7 @@
       <c r="H82" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="83">
-      <c r="A83" s="1" t="n">
-        <v>81</v>
-      </c>
-      <c r="B83" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C83" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D83" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E83" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F83" t="n">
-        <v>126</v>
-      </c>
-      <c r="G83" t="n">
-        <v>36.56999999999996</v>
-      </c>
-      <c r="H83" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" s="1" t="n">
-        <v>82</v>
-      </c>
-      <c r="B84" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C84" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D84" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E84" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F84" t="n">
-        <v>90</v>
-      </c>
-      <c r="G84" t="n">
-        <v>36.57166666666662</v>
-      </c>
-      <c r="H84" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" s="1" t="n">
-        <v>83</v>
-      </c>
-      <c r="B85" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C85" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D85" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E85" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F85" t="n">
-        <v>72</v>
-      </c>
-      <c r="G85" t="n">
-        <v>36.57333333333329</v>
-      </c>
-      <c r="H85" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" s="1" t="n">
-        <v>84</v>
-      </c>
-      <c r="B86" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C86" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D86" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E86" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F86" t="n">
-        <v>144</v>
-      </c>
-      <c r="G86" t="n">
-        <v>36.57499999999995</v>
-      </c>
-      <c r="H86" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" s="1" t="n">
-        <v>85</v>
-      </c>
-      <c r="B87" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C87" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D87" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E87" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F87" t="n">
-        <v>126</v>
-      </c>
-      <c r="G87" t="n">
-        <v>36.57666666666662</v>
-      </c>
-      <c r="H87" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" s="1" t="n">
-        <v>86</v>
-      </c>
-      <c r="B88" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C88" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D88" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E88" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F88" t="n">
-        <v>36</v>
-      </c>
-      <c r="G88" t="n">
-        <v>36.57833333333328</v>
-      </c>
-      <c r="H88" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" s="1" t="n">
-        <v>87</v>
-      </c>
-      <c r="B89" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C89" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D89" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E89" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F89" t="n">
-        <v>18</v>
-      </c>
-      <c r="G89" t="n">
-        <v>36.57999999999995</v>
-      </c>
-      <c r="H89" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" s="1" t="n">
-        <v>88</v>
-      </c>
-      <c r="B90" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C90" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="D90" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="E90" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F90" t="n">
-        <v>28</v>
-      </c>
-      <c r="G90" t="n">
-        <v>36.58333333333328</v>
-      </c>
-      <c r="H90" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" s="1" t="n">
-        <v>89</v>
-      </c>
-      <c r="B91" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C91" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D91" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E91" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F91" t="n">
-        <v>54</v>
-      </c>
-      <c r="G91" t="n">
-        <v>36.58499999999994</v>
-      </c>
-      <c r="H91" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" s="1" t="n">
-        <v>90</v>
-      </c>
-      <c r="B92" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="C92" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D92" t="n">
-        <v>36.8</v>
-      </c>
-      <c r="E92" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F92" t="n">
-        <v>7515.3569</v>
-      </c>
-      <c r="G92" t="n">
-        <v>36.58666666666661</v>
-      </c>
-      <c r="H92" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" s="1" t="n">
-        <v>91</v>
-      </c>
-      <c r="B93" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C93" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D93" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E93" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F93" t="n">
-        <v>18</v>
-      </c>
-      <c r="G93" t="n">
-        <v>36.58833333333327</v>
-      </c>
-      <c r="H93" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" s="1" t="n">
-        <v>92</v>
-      </c>
-      <c r="B94" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C94" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D94" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E94" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F94" t="n">
-        <v>225.8885</v>
-      </c>
-      <c r="G94" t="n">
-        <v>36.58833333333327</v>
-      </c>
-      <c r="H94" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" s="1" t="n">
-        <v>93</v>
-      </c>
-      <c r="B95" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C95" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D95" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E95" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F95" t="n">
-        <v>54</v>
-      </c>
-      <c r="G95" t="n">
-        <v>36.58999999999994</v>
-      </c>
-      <c r="H95" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" s="1" t="n">
-        <v>94</v>
-      </c>
-      <c r="B96" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C96" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D96" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E96" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F96" t="n">
-        <v>90</v>
-      </c>
-      <c r="G96" t="n">
-        <v>36.5916666666666</v>
-      </c>
-      <c r="H96" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" s="1" t="n">
-        <v>95</v>
-      </c>
-      <c r="B97" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="C97" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="D97" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="E97" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F97" t="n">
-        <v>18</v>
-      </c>
-      <c r="G97" t="n">
-        <v>36.59499999999993</v>
-      </c>
-      <c r="H97" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" s="1" t="n">
-        <v>96</v>
-      </c>
-      <c r="B98" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="C98" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="D98" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="E98" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F98" t="n">
-        <v>16745.5675</v>
-      </c>
-      <c r="G98" t="n">
-        <v>36.6016666666666</v>
-      </c>
-      <c r="H98" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="1" t="n">
-        <v>97</v>
-      </c>
-      <c r="B99" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="C99" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="D99" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="E99" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="F99" t="n">
-        <v>25.2574</v>
-      </c>
-      <c r="G99" t="n">
-        <v>36.60833333333327</v>
-      </c>
-      <c r="H99" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="1" t="n">
-        <v>98</v>
-      </c>
-      <c r="B100" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="C100" t="n">
-        <v>37</v>
-      </c>
-      <c r="D100" t="n">
-        <v>37</v>
-      </c>
-      <c r="E100" t="n">
-        <v>36.9</v>
-      </c>
-      <c r="F100" t="n">
-        <v>50228.4054</v>
-      </c>
-      <c r="G100" t="n">
-        <v>36.6166666666666</v>
-      </c>
-      <c r="H100" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="1" t="n">
-        <v>99</v>
-      </c>
-      <c r="B101" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="C101" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="D101" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="E101" t="n">
-        <v>36.7</v>
-      </c>
-      <c r="F101" t="n">
-        <v>15</v>
-      </c>
-      <c r="G101" t="n">
-        <v>36.61999999999993</v>
-      </c>
-      <c r="H101" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="1" t="n">
-        <v>100</v>
-      </c>
-      <c r="B102" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C102" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D102" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E102" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F102" t="n">
-        <v>126</v>
-      </c>
-      <c r="G102" t="n">
-        <v>36.6216666666666</v>
-      </c>
-      <c r="H102" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" s="1" t="n">
-        <v>101</v>
-      </c>
-      <c r="B103" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="C103" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="D103" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="E103" t="n">
-        <v>36.6</v>
-      </c>
-      <c r="F103" t="n">
-        <v>18</v>
-      </c>
-      <c r="G103" t="n">
-        <v>36.62333333333326</v>
-      </c>
-      <c r="H103" t="n">
+      <c r="I82" t="n">
         <v>0</v>
       </c>
     </row>
